--- a/السوق السعودي الاصلي.xlsx
+++ b/السوق السعودي الاصلي.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FB9700-39C6-429B-9639-C12FF896A613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD4358-032F-4D2E-B2B0-072D30CBBBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6A7A7452-3709-4F12-8579-FB6859B3E698}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{6A7A7452-3709-4F12-8579-FB6859B3E698}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>اسم الشركة</t>
   </si>
@@ -200,13 +200,46 @@
   </si>
   <si>
     <t>الحمادي القابضة</t>
+  </si>
+  <si>
+    <t>شركة المواد الغذائية والزراعة</t>
+  </si>
+  <si>
+    <t>شركات الاسمنت</t>
+  </si>
+  <si>
+    <t>شركات البترول والغاز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بدون توزيع ارباح او خسرت </t>
+  </si>
+  <si>
+    <t>شركات المواد الاساسية</t>
+  </si>
+  <si>
+    <t>البنوك</t>
+  </si>
+  <si>
+    <t>الصناديق الاستثمارية والتمويل</t>
+  </si>
+  <si>
+    <t>وسائل النقل</t>
+  </si>
+  <si>
+    <t>العقارات</t>
+  </si>
+  <si>
+    <t>الملابس والأسواق</t>
+  </si>
+  <si>
+    <t>التقنية</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,13 +253,85 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -241,11 +346,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -563,7 +680,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -656,723 +773,723 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>2222</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>28.05</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>22.8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>33.75</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>2010</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>67</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>66.5</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>89</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2020</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>109.6</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>106</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>139</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>2223</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>110.4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>107.2</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>179</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>5110</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>16.920000000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>16.04</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>20.64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>1120</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>97.3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>75.5</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>99.2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>1140</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>39.299999999999997</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>31.7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
         <v>41.36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>1303</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>7.41</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>3.18</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>4332</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>6.16</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>5.77</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>7.3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>7010</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="13">
         <v>40.6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="13">
         <v>35.85</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="13">
         <v>46.5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>4330</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>6.44</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>6.2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>9.25</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>4348</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>5.82</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>5.54</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>6.65</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>3040</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>51.7</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>50.4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>64</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>3050</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>32.799999999999997</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>32.1</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>42.3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>3060</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>23.36</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>22.3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>33.15</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>3005</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>17.86</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>14.64</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>18.739999999999998</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2280</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>55.7</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>5160</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>64.099999999999994</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>4347</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>9.82</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>8.91</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>10.06</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>4333</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>10.36</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>9.93</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>12.58</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>3020</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>28.8</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>37.15</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>2060</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <v>9.99</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <v>9.9700000000000006</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <v>15.08</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>4001</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>10.38</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>10.38</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>14.4</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>2083</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>53.3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="7">
         <v>50.3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>78.400000000000006</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>4012</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="12">
         <v>4.26</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="12">
         <v>3.93</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>5.44</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>2310</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="5">
         <v>23.48</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="5">
         <v>23.46</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="5">
         <v>36.5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>4082</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>12.02</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>9.9</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>12.7</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>2080</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="5">
         <v>101.6</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="5">
         <v>63.7</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="5">
         <v>117.2</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="12">
         <v>4321</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="12">
         <v>21.86</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="12">
         <v>19.22</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="12">
         <v>26.65</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>4340</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>8.4</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>8.15</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>9.09</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="11">
         <v>4300</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <v>15.5</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="11">
         <v>11.18</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="11">
         <v>17.84</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>2050</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>37</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>24.03</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>40.6</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="9">
         <v>4040</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="9">
         <v>20.420000000000002</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="9">
         <v>16</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="9">
         <v>23.88</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>4310</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>14.74</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>12.84</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>19.36</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="4">
         <v>3030</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>41</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="4">
         <v>39.65</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <v>50.8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="9">
         <v>4261</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="9">
         <v>75.599999999999994</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="9">
         <v>59.2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <v>81.5</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>4007</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>39</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>37.9</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>71.8</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1401,35 +1518,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123A2E20-0DDD-40CD-A662-0CF75C82C31B}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DBC99896-DA14-43B6-BA1C-BA4F7DF14849}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C62E2067-B23A-42ED-847F-189FA08CCBDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DBC99896-DA14-43B6-BA1C-BA4F7DF14849}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C62E2067-B23A-42ED-847F-189FA08CCBDA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/السوق السعودي الاصلي.xlsx
+++ b/السوق السعودي الاصلي.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezai\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD4358-032F-4D2E-B2B0-072D30CBBBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E5525D-0F0F-4FF4-8424-C6E522C8B79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{6A7A7452-3709-4F12-8579-FB6859B3E698}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A7A7452-3709-4F12-8579-FB6859B3E698}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="67">
   <si>
     <t>اسم الشركة</t>
   </si>
@@ -64,9 +64,6 @@
     <t>سنة التوزيع 2024</t>
   </si>
   <si>
-    <t>نسبة التوزيع</t>
-  </si>
-  <si>
     <t>الربع 1</t>
   </si>
   <si>
@@ -233,6 +230,12 @@
   </si>
   <si>
     <t>التقنية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يوجد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> لا يوجد </t>
   </si>
 </sst>
 </file>
@@ -346,11 +349,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -360,9 +360,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
@@ -677,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5209AFF-4CD7-4ADC-B7C0-3E6E1002BA01}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,7 +693,7 @@
     <col min="20" max="20" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,492 +712,882 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="G2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="4">
+        <v>2222</v>
+      </c>
+      <c r="C3" s="4">
+        <v>28.05</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33.75</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="5">
-        <v>2222</v>
-      </c>
-      <c r="C3" s="5">
-        <v>28.05</v>
-      </c>
-      <c r="D3" s="5">
-        <v>22.8</v>
-      </c>
-      <c r="E3" s="5">
-        <v>33.75</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="4">
+        <v>0.3518</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.3024</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.48149999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="6">
+        <v>2010</v>
+      </c>
+      <c r="C4" s="6">
+        <v>67</v>
+      </c>
+      <c r="D4" s="6">
+        <v>66.5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>89</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7">
-        <v>2010</v>
-      </c>
-      <c r="C4" s="7">
-        <v>67</v>
-      </c>
-      <c r="D4" s="7">
-        <v>66.5</v>
-      </c>
-      <c r="E4" s="7">
-        <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="L4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="R4" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="1">
+        <v>109.6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>106</v>
+      </c>
+      <c r="E5" s="1">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="2">
-        <v>109.6</v>
-      </c>
-      <c r="D5" s="2">
-        <v>106</v>
-      </c>
-      <c r="E5" s="2">
-        <v>139</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="6">
+        <v>2223</v>
+      </c>
+      <c r="C6" s="6">
+        <v>110.4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>107.2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>179</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="6">
+        <v>5</v>
+      </c>
+      <c r="P6" s="6">
+        <v>5</v>
+      </c>
+      <c r="R6" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7">
-        <v>2223</v>
-      </c>
-      <c r="C6" s="7">
-        <v>110.4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>107.2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>179</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="6">
+        <v>5110</v>
+      </c>
+      <c r="C7" s="6">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>16.04</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20.64</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="7">
-        <v>5110</v>
-      </c>
-      <c r="C7" s="7">
-        <v>16.920000000000002</v>
-      </c>
-      <c r="D7" s="7">
-        <v>16.04</v>
-      </c>
-      <c r="E7" s="7">
-        <v>20.64</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="7">
+        <v>1120</v>
+      </c>
+      <c r="C8" s="7">
+        <v>97.3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>75.5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>99.2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P8" s="7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R8" s="7">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8">
-        <v>1120</v>
-      </c>
-      <c r="C8" s="8">
-        <v>97.3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>75.5</v>
-      </c>
-      <c r="E8" s="8">
-        <v>99.2</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="7">
+        <v>1140</v>
+      </c>
+      <c r="C9" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31.7</v>
+      </c>
+      <c r="E9" s="7">
+        <v>41.36</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8">
-        <v>1140</v>
-      </c>
-      <c r="C9" s="8">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="D9" s="8">
-        <v>31.7</v>
-      </c>
-      <c r="E9" s="8">
-        <v>41.36</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B10" s="6">
+        <v>1303</v>
+      </c>
+      <c r="C10" s="6">
+        <v>7.41</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.18</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7">
-        <v>1303</v>
-      </c>
-      <c r="C10" s="7">
-        <v>7.41</v>
-      </c>
-      <c r="D10" s="7">
-        <v>3.18</v>
-      </c>
-      <c r="E10" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="5">
+        <v>4332</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.16</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5.77</v>
+      </c>
+      <c r="E11" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="6">
-        <v>4332</v>
-      </c>
-      <c r="C11" s="6">
-        <v>6.16</v>
-      </c>
-      <c r="D11" s="6">
-        <v>5.77</v>
-      </c>
-      <c r="E11" s="6">
-        <v>7.3</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="11">
+        <v>7010</v>
+      </c>
+      <c r="C12" s="11">
+        <v>40.6</v>
+      </c>
+      <c r="D12" s="11">
+        <v>35.85</v>
+      </c>
+      <c r="E12" s="11">
+        <v>46.5</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
-        <v>7010</v>
-      </c>
-      <c r="C12" s="13">
-        <v>40.6</v>
-      </c>
-      <c r="D12" s="13">
-        <v>35.85</v>
-      </c>
-      <c r="E12" s="13">
-        <v>46.5</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="5">
+        <v>4330</v>
+      </c>
+      <c r="C13" s="5">
+        <v>6.44</v>
+      </c>
+      <c r="D13" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>9.25</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="6">
-        <v>4330</v>
-      </c>
-      <c r="C13" s="6">
-        <v>6.44</v>
-      </c>
-      <c r="D13" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="E13" s="6">
-        <v>9.25</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="5">
+        <v>4348</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5.82</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5.54</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6.65</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.105</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="6">
-        <v>4348</v>
-      </c>
-      <c r="C14" s="6">
-        <v>5.82</v>
-      </c>
-      <c r="D14" s="6">
-        <v>5.54</v>
-      </c>
-      <c r="E14" s="6">
-        <v>6.65</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="B15" s="3">
+        <v>3040</v>
+      </c>
+      <c r="C15" s="3">
+        <v>51.7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50.4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>64</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="4">
-        <v>3040</v>
-      </c>
-      <c r="C15" s="4">
-        <v>51.7</v>
-      </c>
-      <c r="D15" s="4">
-        <v>50.4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>64</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="B16" s="3">
+        <v>3050</v>
+      </c>
+      <c r="C16" s="3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D16" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>42.3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="4">
-        <v>3050</v>
-      </c>
-      <c r="C16" s="4">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="D16" s="4">
-        <v>32.1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>42.3</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="3">
+        <v>3060</v>
+      </c>
+      <c r="C17" s="3">
+        <v>23.36</v>
+      </c>
+      <c r="D17" s="3">
+        <v>22.3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>33.15</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="4">
-        <v>3060</v>
-      </c>
-      <c r="C17" s="4">
-        <v>23.36</v>
-      </c>
-      <c r="D17" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>33.15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="2">
+        <v>3005</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17.86</v>
+      </c>
+      <c r="D18" s="2">
+        <v>14.64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4">
-        <v>3005</v>
-      </c>
-      <c r="C18" s="4">
-        <v>17.86</v>
-      </c>
-      <c r="D18" s="4">
-        <v>14.64</v>
-      </c>
-      <c r="E18" s="4">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="1">
+        <v>2280</v>
+      </c>
+      <c r="C19" s="1">
+        <v>55.7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5160</v>
+      </c>
+      <c r="E19" s="1">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2">
-        <v>2280</v>
-      </c>
-      <c r="C19" s="2">
-        <v>55.7</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5160</v>
-      </c>
-      <c r="E19" s="2">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="B20" s="5">
+        <v>4347</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9.82</v>
+      </c>
+      <c r="D20" s="5">
+        <v>8.91</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10.06</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="6">
-        <v>4347</v>
-      </c>
-      <c r="C20" s="6">
-        <v>9.82</v>
-      </c>
-      <c r="D20" s="6">
-        <v>8.91</v>
-      </c>
-      <c r="E20" s="6">
-        <v>10.06</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="B21" s="5">
+        <v>4333</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10.36</v>
+      </c>
+      <c r="D21" s="5">
+        <v>9.93</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12.58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="R21" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="6">
-        <v>4333</v>
-      </c>
-      <c r="C21" s="6">
-        <v>10.36</v>
-      </c>
-      <c r="D21" s="6">
-        <v>9.93</v>
-      </c>
-      <c r="E21" s="6">
-        <v>12.58</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="3">
+        <v>3020</v>
+      </c>
+      <c r="C22" s="3">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>28.8</v>
+      </c>
+      <c r="E22" s="3">
+        <v>37.15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="4">
-        <v>3020</v>
-      </c>
-      <c r="C22" s="4">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="D22" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="E22" s="4">
-        <v>37.15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="2">
+        <v>2060</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9.99</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15.08</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2060</v>
-      </c>
-      <c r="C23" s="5">
-        <v>9.99</v>
-      </c>
-      <c r="D23" s="5">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="E23" s="5">
-        <v>15.08</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="B24" s="2">
         <v>4001</v>
@@ -1210,287 +1602,575 @@
         <v>14.4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2083</v>
+      </c>
+      <c r="C25" s="6">
+        <v>53.3</v>
+      </c>
+      <c r="D25" s="6">
+        <v>50.3</v>
+      </c>
+      <c r="E25" s="6">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="7">
-        <v>2083</v>
-      </c>
-      <c r="C25" s="7">
-        <v>53.3</v>
-      </c>
-      <c r="D25" s="7">
-        <v>50.3</v>
-      </c>
-      <c r="E25" s="7">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="10">
+        <v>4012</v>
+      </c>
+      <c r="C26" s="10">
+        <v>4.26</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3.93</v>
+      </c>
+      <c r="E26" s="10">
+        <v>5.44</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="L26" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="N26" s="10">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="R26" s="10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="12">
-        <v>4012</v>
-      </c>
-      <c r="C26" s="12">
-        <v>4.26</v>
-      </c>
-      <c r="D26" s="12">
-        <v>3.93</v>
-      </c>
-      <c r="E26" s="12">
-        <v>5.44</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="B27" s="4">
+        <v>2310</v>
+      </c>
+      <c r="C27" s="4">
+        <v>23.48</v>
+      </c>
+      <c r="D27" s="4">
+        <v>23.46</v>
+      </c>
+      <c r="E27" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5">
-        <v>2310</v>
-      </c>
-      <c r="C27" s="5">
-        <v>23.48</v>
-      </c>
-      <c r="D27" s="5">
-        <v>23.46</v>
-      </c>
-      <c r="E27" s="5">
-        <v>36.5</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="B28" s="5">
+        <v>4082</v>
+      </c>
+      <c r="C28" s="5">
+        <v>12.02</v>
+      </c>
+      <c r="D28" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="E28" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="R28" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6">
-        <v>4082</v>
-      </c>
-      <c r="C28" s="6">
-        <v>12.02</v>
-      </c>
-      <c r="D28" s="6">
-        <v>9.9</v>
-      </c>
-      <c r="E28" s="6">
-        <v>12.7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="4">
+        <v>2080</v>
+      </c>
+      <c r="C29" s="4">
+        <v>101.6</v>
+      </c>
+      <c r="D29" s="4">
+        <v>63.7</v>
+      </c>
+      <c r="E29" s="4">
+        <v>117.2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="5">
-        <v>2080</v>
-      </c>
-      <c r="C29" s="5">
-        <v>101.6</v>
-      </c>
-      <c r="D29" s="5">
-        <v>63.7</v>
-      </c>
-      <c r="E29" s="5">
-        <v>117.2</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="B30" s="10">
+        <v>4321</v>
+      </c>
+      <c r="C30" s="10">
+        <v>21.86</v>
+      </c>
+      <c r="D30" s="10">
+        <v>19.22</v>
+      </c>
+      <c r="E30" s="10">
+        <v>26.65</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="12">
-        <v>4321</v>
-      </c>
-      <c r="C30" s="12">
-        <v>21.86</v>
-      </c>
-      <c r="D30" s="12">
-        <v>19.22</v>
-      </c>
-      <c r="E30" s="12">
-        <v>26.65</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="5">
+        <v>4340</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="D31" s="5">
+        <v>8.15</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9.09</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="6">
-        <v>4340</v>
-      </c>
-      <c r="C31" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="D31" s="6">
-        <v>8.15</v>
-      </c>
-      <c r="E31" s="6">
-        <v>9.09</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
+      <c r="B32" s="2">
+        <v>4300</v>
+      </c>
+      <c r="C32" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>11.18</v>
+      </c>
+      <c r="E32" s="2">
+        <v>17.84</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="11">
-        <v>4300</v>
-      </c>
-      <c r="C32" s="11">
-        <v>15.5</v>
-      </c>
-      <c r="D32" s="11">
-        <v>11.18</v>
-      </c>
-      <c r="E32" s="11">
-        <v>17.84</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="B33" s="5">
+        <v>2050</v>
+      </c>
+      <c r="C33" s="5">
+        <v>37</v>
+      </c>
+      <c r="D33" s="5">
+        <v>24.03</v>
+      </c>
+      <c r="E33" s="5">
+        <v>40.6</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="2">
+        <v>4040</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D34" s="2">
+        <v>16</v>
+      </c>
+      <c r="E34" s="2">
+        <v>23.88</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="2">
+        <v>4310</v>
+      </c>
+      <c r="C35" s="2">
+        <v>14.74</v>
+      </c>
+      <c r="D35" s="2">
+        <v>12.84</v>
+      </c>
+      <c r="E35" s="2">
+        <v>19.36</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3">
+        <v>3030</v>
+      </c>
+      <c r="C36" s="3">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3">
+        <v>39.65</v>
+      </c>
+      <c r="E36" s="3">
+        <v>50.8</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="8">
+        <v>4261</v>
+      </c>
+      <c r="C37" s="8">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="D37" s="8">
+        <v>59.2</v>
+      </c>
+      <c r="E37" s="8">
+        <v>81.5</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="R37" s="8">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="6">
-        <v>2050</v>
-      </c>
-      <c r="C33" s="6">
-        <v>37</v>
-      </c>
-      <c r="D33" s="6">
-        <v>24.03</v>
-      </c>
-      <c r="E33" s="6">
-        <v>40.6</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="9">
-        <v>4040</v>
-      </c>
-      <c r="C34" s="9">
-        <v>20.420000000000002</v>
-      </c>
-      <c r="D34" s="9">
-        <v>16</v>
-      </c>
-      <c r="E34" s="9">
-        <v>23.88</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6">
-        <v>4310</v>
-      </c>
-      <c r="C35" s="6">
-        <v>14.74</v>
-      </c>
-      <c r="D35" s="6">
-        <v>12.84</v>
-      </c>
-      <c r="E35" s="6">
-        <v>19.36</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="4">
-        <v>3030</v>
-      </c>
-      <c r="C36" s="4">
-        <v>41</v>
-      </c>
-      <c r="D36" s="4">
-        <v>39.65</v>
-      </c>
-      <c r="E36" s="4">
-        <v>50.8</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B38" s="5">
+        <v>4007</v>
+      </c>
+      <c r="C38" s="5">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5">
+        <v>37.9</v>
+      </c>
+      <c r="E38" s="5">
+        <v>71.8</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="9">
-        <v>4261</v>
-      </c>
-      <c r="C37" s="9">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="D37" s="9">
-        <v>59.2</v>
-      </c>
-      <c r="E37" s="9">
-        <v>81.5</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="6">
-        <v>4007</v>
-      </c>
-      <c r="C38" s="6">
-        <v>39</v>
-      </c>
-      <c r="D38" s="6">
-        <v>37.9</v>
-      </c>
-      <c r="E38" s="6">
-        <v>71.8</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>52</v>
+      <c r="G38" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="R38" s="5">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1521,7 +2201,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1531,72 +2211,86 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>58</v>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C62E2067-B23A-42ED-847F-189FA08CCBDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2">
     <cfRule type="dataBar" priority="2">
       <dataBar>
@@ -1621,24 +2315,21 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C62E2067-B23A-42ED-847F-189FA08CCBDA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C62E2067-B23A-42ED-847F-189FA08CCBDA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B1</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DBC99896-DA14-43B6-BA1C-BA4F7DF14849}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -1650,17 +2341,6 @@
           </x14:cfRule>
           <xm:sqref>B2</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C62E2067-B23A-42ED-847F-189FA08CCBDA}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B1</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
